--- a/dataset_ta.xlsx
+++ b/dataset_ta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\Semester 6\TA2\RainfallPrediction_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722EB142-F0CA-4CC5-9A01-CAE4C92CD4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB966F0-CC3C-441D-BC4A-E707741D6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="1908" windowWidth="15096" windowHeight="8880" xr2:uid="{B493E0B4-3F43-4A88-9904-92F4F4005556}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B493E0B4-3F43-4A88-9904-92F4F4005556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,12 +157,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1E6358-AC72-4380-A184-43332BE93A5A}">
-  <dimension ref="A1:G1401"/>
+  <dimension ref="A1:G1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1386" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C1401" sqref="C1401"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29500,3208 +29494,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1262" s="5">
-        <v>45091</v>
-      </c>
-      <c r="B1262" s="3">
-        <v>21.6</v>
-      </c>
-      <c r="C1262" s="3">
-        <v>57</v>
-      </c>
-      <c r="D1262" s="3">
-        <v>1019.7</v>
-      </c>
-      <c r="E1262" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1262" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1262" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1263" s="5">
-        <v>45092</v>
-      </c>
-      <c r="B1263" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1263" s="3">
-        <v>78</v>
-      </c>
-      <c r="D1263" s="3">
-        <v>1019.3</v>
-      </c>
-      <c r="E1263" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1263" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1263" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1264" s="5">
-        <v>45093</v>
-      </c>
-      <c r="B1264" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1264" s="3">
-        <v>83</v>
-      </c>
-      <c r="D1264" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1264" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1264" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1264" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1265" s="5">
-        <v>45094</v>
-      </c>
-      <c r="B1265" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1265" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1265" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1265" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1265" s="3">
-        <v>9</v>
-      </c>
-      <c r="G1265" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1266" s="5">
-        <v>45095</v>
-      </c>
-      <c r="B1266" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="C1266" s="3">
-        <v>72</v>
-      </c>
-      <c r="D1266" s="3">
-        <v>1019.3</v>
-      </c>
-      <c r="E1266" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1266" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1266" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1267" s="5">
-        <v>45096</v>
-      </c>
-      <c r="B1267" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1267" s="3">
-        <v>78</v>
-      </c>
-      <c r="D1267" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1267" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1267" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1267" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1268" s="5">
-        <v>45097</v>
-      </c>
-      <c r="B1268" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="C1268" s="3">
-        <v>80</v>
-      </c>
-      <c r="D1268" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1268" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1268" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1268" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1269" s="5">
-        <v>45098</v>
-      </c>
-      <c r="B1269" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="C1269" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1269" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1269" s="3">
-        <v>30</v>
-      </c>
-      <c r="F1269" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1269" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1270" s="5">
-        <v>45099</v>
-      </c>
-      <c r="B1270" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="C1270" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1270" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1270" s="3">
-        <v>60</v>
-      </c>
-      <c r="F1270" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1270" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1271" s="5">
-        <v>45100</v>
-      </c>
-      <c r="B1271" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1271" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1271" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1271" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1271" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1271" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1272" s="5">
-        <v>45101</v>
-      </c>
-      <c r="B1272" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1272" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1272" s="3">
-        <v>1018.2</v>
-      </c>
-      <c r="E1272" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1272" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1272" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1273" s="5">
-        <v>45102</v>
-      </c>
-      <c r="B1273" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1273" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1273" s="3">
-        <v>1018.2</v>
-      </c>
-      <c r="E1273" s="3">
-        <v>280</v>
-      </c>
-      <c r="F1273" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1273" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1274" s="5">
-        <v>45103</v>
-      </c>
-      <c r="B1274" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1274" s="3">
-        <v>92</v>
-      </c>
-      <c r="D1274" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1274" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1274" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1274" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1275" s="5">
-        <v>45104</v>
-      </c>
-      <c r="B1275" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1275" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1275" s="3">
-        <v>1019.2</v>
-      </c>
-      <c r="E1275" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1275" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1275" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1276" s="5">
-        <v>45105</v>
-      </c>
-      <c r="B1276" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1276" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1276" s="3">
-        <v>1019.5</v>
-      </c>
-      <c r="E1276" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1276" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1276" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1277" s="5">
-        <v>45106</v>
-      </c>
-      <c r="B1277" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1277" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1277" s="3">
-        <v>1018.8</v>
-      </c>
-      <c r="E1277" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1277" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1277" s="3">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1278" s="5">
-        <v>45107</v>
-      </c>
-      <c r="B1278" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1278" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1278" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1278" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1278" s="3">
-        <v>9</v>
-      </c>
-      <c r="G1278" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1279" s="5">
-        <v>45108</v>
-      </c>
-      <c r="B1279" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1279" s="3">
-        <v>89</v>
-      </c>
-      <c r="D1279" s="3">
-        <v>1019.8</v>
-      </c>
-      <c r="E1279" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1279" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1279" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1280" s="5">
-        <v>45109</v>
-      </c>
-      <c r="B1280" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1280" s="3">
-        <v>92</v>
-      </c>
-      <c r="D1280" s="3">
-        <v>1019.8</v>
-      </c>
-      <c r="E1280" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1280" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1280" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1281" s="5">
-        <v>45110</v>
-      </c>
-      <c r="B1281" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="C1281" s="3">
-        <v>82</v>
-      </c>
-      <c r="D1281" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1281" s="3">
-        <v>290</v>
-      </c>
-      <c r="F1281" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1281" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1282" s="5">
-        <v>45111</v>
-      </c>
-      <c r="B1282" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="C1282" s="3">
-        <v>89</v>
-      </c>
-      <c r="D1282" s="3">
-        <v>1018.9</v>
-      </c>
-      <c r="E1282" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1282" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1282" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1283" s="5">
-        <v>45112</v>
-      </c>
-      <c r="B1283" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C1283" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1283" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1283" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1283" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1283" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1284" s="5">
-        <v>45113</v>
-      </c>
-      <c r="B1284" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1284" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1284" s="3">
-        <v>1019.4</v>
-      </c>
-      <c r="E1284" s="3">
-        <v>20</v>
-      </c>
-      <c r="F1284" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1284" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1285" s="5">
-        <v>45114</v>
-      </c>
-      <c r="B1285" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C1285" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1285" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1285" s="3">
-        <v>360</v>
-      </c>
-      <c r="F1285" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1285" s="3">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1286" s="5">
-        <v>45115</v>
-      </c>
-      <c r="B1286" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1286" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1286" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1286" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1286" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1286" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1287" s="5">
-        <v>45116</v>
-      </c>
-      <c r="B1287" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1287" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1287" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1287" s="3">
-        <v>230</v>
-      </c>
-      <c r="F1287" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1287" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1288" s="5">
-        <v>45117</v>
-      </c>
-      <c r="B1288" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="C1288" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1288" s="3">
-        <v>1018.8</v>
-      </c>
-      <c r="E1288" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1288" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1288" s="3">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1289" s="5">
-        <v>45118</v>
-      </c>
-      <c r="B1289" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1289" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1289" s="3">
-        <v>1018.9</v>
-      </c>
-      <c r="E1289" s="3">
-        <v>310</v>
-      </c>
-      <c r="F1289" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1289" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1290" s="5">
-        <v>45119</v>
-      </c>
-      <c r="B1290" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1290" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1290" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1290" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1290" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1290" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1291" s="5">
-        <v>45120</v>
-      </c>
-      <c r="B1291" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1291" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1291" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1291" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1291" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1291" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1292" s="5">
-        <v>45121</v>
-      </c>
-      <c r="B1292" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C1292" s="3">
-        <v>85</v>
-      </c>
-      <c r="D1292" s="3">
-        <v>1020.4</v>
-      </c>
-      <c r="E1292" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1292" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1292" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1293" s="5">
-        <v>45122</v>
-      </c>
-      <c r="B1293" s="3">
-        <v>19.8</v>
-      </c>
-      <c r="C1293" s="3">
-        <v>85</v>
-      </c>
-      <c r="D1293" s="3">
-        <v>1019.7</v>
-      </c>
-      <c r="E1293" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1293" s="3">
-        <v>9</v>
-      </c>
-      <c r="G1293" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1294" s="5">
-        <v>45123</v>
-      </c>
-      <c r="B1294" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1294" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1294" s="3">
-        <v>1018.4</v>
-      </c>
-      <c r="E1294" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1294" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1294" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1295" s="5">
-        <v>45124</v>
-      </c>
-      <c r="B1295" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1295" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1295" s="3">
-        <v>1017.9</v>
-      </c>
-      <c r="E1295" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1295" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1295" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1296" s="5">
-        <v>45125</v>
-      </c>
-      <c r="B1296" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1296" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1296" s="3">
-        <v>1018</v>
-      </c>
-      <c r="E1296" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1296" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1296" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1297" s="5">
-        <v>45126</v>
-      </c>
-      <c r="B1297" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1297" s="3">
-        <v>92</v>
-      </c>
-      <c r="D1297" s="3">
-        <v>1017.8</v>
-      </c>
-      <c r="E1297" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1297" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1297" s="3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1298" s="5">
-        <v>45127</v>
-      </c>
-      <c r="B1298" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1298" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1298" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1298" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1298" s="3">
-        <v>9</v>
-      </c>
-      <c r="G1298" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1299" s="5">
-        <v>45128</v>
-      </c>
-      <c r="B1299" s="3">
-        <v>20</v>
-      </c>
-      <c r="C1299" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1299" s="3">
-        <v>1019.2</v>
-      </c>
-      <c r="E1299" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1299" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1299" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1300" s="5">
-        <v>45129</v>
-      </c>
-      <c r="B1300" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1300" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1300" s="3">
-        <v>1020.3</v>
-      </c>
-      <c r="E1300" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1300" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1300" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1301" s="5">
-        <v>45130</v>
-      </c>
-      <c r="B1301" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1301" s="3">
-        <v>82</v>
-      </c>
-      <c r="D1301" s="3">
-        <v>1017.6</v>
-      </c>
-      <c r="E1301" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1301" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1301" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1302" s="5">
-        <v>45131</v>
-      </c>
-      <c r="B1302" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1302" s="3">
-        <v>71</v>
-      </c>
-      <c r="D1302" s="3">
-        <v>1019.4</v>
-      </c>
-      <c r="E1302" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1302" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1302" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1303" s="5">
-        <v>45132</v>
-      </c>
-      <c r="B1303" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1303" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1303" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1303" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1303" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1303" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1304" s="5">
-        <v>45133</v>
-      </c>
-      <c r="B1304" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1304" s="3">
-        <v>89</v>
-      </c>
-      <c r="D1304" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1304" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1304" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1304" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1305" s="5">
-        <v>45134</v>
-      </c>
-      <c r="B1305" s="3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C1305" s="3">
-        <v>83</v>
-      </c>
-      <c r="D1305" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1305" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1305" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1305" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1306" s="5">
-        <v>45135</v>
-      </c>
-      <c r="B1306" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C1306" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1306" s="3">
-        <v>1018.9</v>
-      </c>
-      <c r="E1306" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1306" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1306" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1307" s="5">
-        <v>45136</v>
-      </c>
-      <c r="B1307" s="3">
-        <v>19.8</v>
-      </c>
-      <c r="C1307" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1307" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1307" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1307" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1307" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1308" s="5">
-        <v>45137</v>
-      </c>
-      <c r="B1308" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1308" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1308" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1308" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1308" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1308" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1309" s="5">
-        <v>45138</v>
-      </c>
-      <c r="B1309" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1309" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1309" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1309" s="3">
-        <v>30</v>
-      </c>
-      <c r="F1309" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1309" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1310" s="5">
-        <v>45139</v>
-      </c>
-      <c r="B1310" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1310" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1310" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1310" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1310" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1310" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1311" s="5">
-        <v>45140</v>
-      </c>
-      <c r="B1311" s="3">
-        <v>20</v>
-      </c>
-      <c r="C1311" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1311" s="3">
-        <v>1020.3</v>
-      </c>
-      <c r="E1311" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1311" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1311" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1312" s="5">
-        <v>45141</v>
-      </c>
-      <c r="B1312" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1312" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1312" s="3">
-        <v>1021.1</v>
-      </c>
-      <c r="E1312" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1312" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1312" s="3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1313" s="5">
-        <v>45142</v>
-      </c>
-      <c r="B1313" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C1313" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1313" s="3">
-        <v>1022.1</v>
-      </c>
-      <c r="E1313" s="3">
-        <v>30</v>
-      </c>
-      <c r="F1313" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1313" s="3">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1314" s="5">
-        <v>45143</v>
-      </c>
-      <c r="B1314" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1314" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1314" s="3">
-        <v>1021.9</v>
-      </c>
-      <c r="E1314" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1314" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1314" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1315" s="5">
-        <v>45144</v>
-      </c>
-      <c r="B1315" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1315" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1315" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1315" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1315" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1315" s="3">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1316" s="5">
-        <v>45145</v>
-      </c>
-      <c r="B1316" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1316" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1316" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1316" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1316" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1316" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1317" s="5">
-        <v>45146</v>
-      </c>
-      <c r="B1317" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C1317" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1317" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1317" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1317" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1317" s="3">
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1318" s="5">
-        <v>45147</v>
-      </c>
-      <c r="B1318" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1318" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1318" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1318" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1318" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1318" s="3">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1319" s="5">
-        <v>45148</v>
-      </c>
-      <c r="B1319" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1319" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1319" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1319" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1319" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1319" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1320" s="5">
-        <v>45149</v>
-      </c>
-      <c r="B1320" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1320" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1320" s="3">
-        <v>1020.1</v>
-      </c>
-      <c r="E1320" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1320" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1320" s="3">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1321" s="5">
-        <v>45150</v>
-      </c>
-      <c r="B1321" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1321" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1321" s="3">
-        <v>1020.5</v>
-      </c>
-      <c r="E1321" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1321" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1321" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1322" s="5">
-        <v>45151</v>
-      </c>
-      <c r="B1322" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1322" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1322" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1322" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1322" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1322" s="3">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1323" s="5">
-        <v>45152</v>
-      </c>
-      <c r="B1323" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="C1323" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1323" s="3">
-        <v>1020.1</v>
-      </c>
-      <c r="E1323" s="3">
-        <v>240</v>
-      </c>
-      <c r="F1323" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1323" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1324" s="5">
-        <v>45153</v>
-      </c>
-      <c r="B1324" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1324" s="3">
-        <v>90</v>
-      </c>
-      <c r="D1324" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1324" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1324" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1324" s="3">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1325" s="5">
-        <v>45154</v>
-      </c>
-      <c r="B1325" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1325" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1325" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1325" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1325" s="3">
-        <v>8</v>
-      </c>
-      <c r="G1325" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1326" s="5">
-        <v>45155</v>
-      </c>
-      <c r="B1326" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="C1326" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1326" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1326" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1326" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1326" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1327" s="5">
-        <v>45156</v>
-      </c>
-      <c r="B1327" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="C1327" s="3">
-        <v>90</v>
-      </c>
-      <c r="D1327" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1327" s="3">
-        <v>320</v>
-      </c>
-      <c r="F1327" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1327" s="3">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1328" s="5">
-        <v>45157</v>
-      </c>
-      <c r="B1328" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="C1328" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1328" s="3">
-        <v>1018.4</v>
-      </c>
-      <c r="E1328" s="3">
-        <v>320</v>
-      </c>
-      <c r="F1328" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1328" s="3">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1329" s="5">
-        <v>45158</v>
-      </c>
-      <c r="B1329" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1329" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1329" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1329" s="3">
-        <v>270</v>
-      </c>
-      <c r="F1329" s="3">
-        <v>9</v>
-      </c>
-      <c r="G1329" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1330" s="5">
-        <v>45159</v>
-      </c>
-      <c r="B1330" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1330" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1330" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1330" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1330" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1330" s="3">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1331" s="5">
-        <v>45160</v>
-      </c>
-      <c r="B1331" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1331" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1331" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1331" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1331" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1331" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1332" s="5">
-        <v>45161</v>
-      </c>
-      <c r="B1332" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1332" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1332" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1332" s="3">
-        <v>190</v>
-      </c>
-      <c r="F1332" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1332" s="3">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1333" s="5">
-        <v>45162</v>
-      </c>
-      <c r="B1333" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1333" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1333" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1333" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1333" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1333" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1334" s="5">
-        <v>45163</v>
-      </c>
-      <c r="B1334" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1334" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1334" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1334" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1334" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1334" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1335" s="5">
-        <v>45164</v>
-      </c>
-      <c r="B1335" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1335" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1335" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1335" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1335" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1335" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1336" s="5">
-        <v>45165</v>
-      </c>
-      <c r="B1336" s="3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C1336" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1336" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1336" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1336" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1336" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1337" s="5">
-        <v>45166</v>
-      </c>
-      <c r="B1337" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C1337" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1337" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1337" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1337" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1337" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1338" s="5">
-        <v>45167</v>
-      </c>
-      <c r="B1338" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1338" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1338" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1338" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1338" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1338" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1339" s="5">
-        <v>45168</v>
-      </c>
-      <c r="B1339" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="C1339" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1339" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1339" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1339" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1339" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1340" s="5">
-        <v>45169</v>
-      </c>
-      <c r="B1340" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1340" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1340" s="3">
-        <v>1019.5</v>
-      </c>
-      <c r="E1340" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1340" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1340" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1341" s="5">
-        <v>45170</v>
-      </c>
-      <c r="B1341" s="3">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C1341" s="3">
-        <v>100</v>
-      </c>
-      <c r="D1341" s="3">
-        <v>1019.4</v>
-      </c>
-      <c r="E1341" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1341" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1341" s="3">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1342" s="5">
-        <v>45171</v>
-      </c>
-      <c r="B1342" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1342" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1342" s="3">
-        <v>1018.1</v>
-      </c>
-      <c r="E1342" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1342" s="3">
-        <v>14</v>
-      </c>
-      <c r="G1342" s="3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1343" s="5">
-        <v>45172</v>
-      </c>
-      <c r="B1343" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1343" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1343" s="3">
-        <v>1017</v>
-      </c>
-      <c r="E1343" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1343" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1343" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1344" s="5">
-        <v>45173</v>
-      </c>
-      <c r="B1344" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1344" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1344" s="3">
-        <v>1016.9</v>
-      </c>
-      <c r="E1344" s="3">
-        <v>330</v>
-      </c>
-      <c r="F1344" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1344" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1345" s="5">
-        <v>45174</v>
-      </c>
-      <c r="B1345" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="C1345" s="3">
-        <v>100</v>
-      </c>
-      <c r="D1345" s="3">
-        <v>1018.5</v>
-      </c>
-      <c r="E1345" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1345" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1345" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1346" s="5">
-        <v>45175</v>
-      </c>
-      <c r="B1346" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="C1346" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1346" s="3">
-        <v>1019.7</v>
-      </c>
-      <c r="E1346" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1346" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1346" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1347" s="5">
-        <v>45176</v>
-      </c>
-      <c r="B1347" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="C1347" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1347" s="3">
-        <v>1019.1</v>
-      </c>
-      <c r="E1347" s="3">
-        <v>30</v>
-      </c>
-      <c r="F1347" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1347" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1348" s="5">
-        <v>45177</v>
-      </c>
-      <c r="B1348" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="C1348" s="3">
-        <v>92</v>
-      </c>
-      <c r="D1348" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1348" s="3">
-        <v>20</v>
-      </c>
-      <c r="F1348" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1348" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1349" s="5">
-        <v>45178</v>
-      </c>
-      <c r="B1349" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1349" s="3">
-        <v>90</v>
-      </c>
-      <c r="D1349" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1349" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1349" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1349" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1350" s="5">
-        <v>45179</v>
-      </c>
-      <c r="B1350" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C1350" s="3">
-        <v>83</v>
-      </c>
-      <c r="D1350" s="3">
-        <v>1019.1</v>
-      </c>
-      <c r="E1350" s="3">
-        <v>250</v>
-      </c>
-      <c r="F1350" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1350" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1351" s="5">
-        <v>45180</v>
-      </c>
-      <c r="B1351" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1351" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1351" s="3">
-        <v>1019.3</v>
-      </c>
-      <c r="E1351" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1351" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1351" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1352" s="5">
-        <v>45181</v>
-      </c>
-      <c r="B1352" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1352" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1352" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1352" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1352" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1352" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1353" s="5">
-        <v>45182</v>
-      </c>
-      <c r="B1353" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="C1353" s="3">
-        <v>92</v>
-      </c>
-      <c r="D1353" s="3">
-        <v>1019.7</v>
-      </c>
-      <c r="E1353" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1353" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1353" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1354" s="5">
-        <v>45183</v>
-      </c>
-      <c r="B1354" s="3">
-        <v>19.8</v>
-      </c>
-      <c r="C1354" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1354" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1354" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1354" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1354" s="3">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1355" s="5">
-        <v>45184</v>
-      </c>
-      <c r="B1355" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C1355" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1355" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1355" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1355" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1355" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1356" s="5">
-        <v>45185</v>
-      </c>
-      <c r="B1356" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1356" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1356" s="3">
-        <v>1018.8</v>
-      </c>
-      <c r="E1356" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1356" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1356" s="3">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1357" s="5">
-        <v>45186</v>
-      </c>
-      <c r="B1357" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1357" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1357" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1357" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1357" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1357" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1358" s="5">
-        <v>45187</v>
-      </c>
-      <c r="B1358" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1358" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1358" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1358" s="3">
-        <v>350</v>
-      </c>
-      <c r="F1358" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1358" s="3">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1359" s="5">
-        <v>45188</v>
-      </c>
-      <c r="B1359" s="3">
-        <v>20.7</v>
-      </c>
-      <c r="C1359" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1359" s="3">
-        <v>1018.7</v>
-      </c>
-      <c r="E1359" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1359" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1359" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1360" s="5">
-        <v>45189</v>
-      </c>
-      <c r="B1360" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1360" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1360" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1360" s="3">
-        <v>20</v>
-      </c>
-      <c r="F1360" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1360" s="3">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1361" s="5">
-        <v>45190</v>
-      </c>
-      <c r="B1361" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1361" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1361" s="3">
-        <v>1019.5</v>
-      </c>
-      <c r="E1361" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1361" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1361" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1362" s="5">
-        <v>45191</v>
-      </c>
-      <c r="B1362" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1362" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1362" s="3">
-        <v>1019.5</v>
-      </c>
-      <c r="E1362" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1362" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1362" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1363" s="5">
-        <v>45192</v>
-      </c>
-      <c r="B1363" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1363" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1363" s="3">
-        <v>1019.3</v>
-      </c>
-      <c r="E1363" s="3">
-        <v>170</v>
-      </c>
-      <c r="F1363" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1363" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1364" s="5">
-        <v>45193</v>
-      </c>
-      <c r="B1364" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="C1364" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1364" s="3">
-        <v>1019.2</v>
-      </c>
-      <c r="E1364" s="3">
-        <v>190</v>
-      </c>
-      <c r="F1364" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1364" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1365" s="5">
-        <v>45194</v>
-      </c>
-      <c r="B1365" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="C1365" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1365" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1365" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1365" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1365" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1366" s="5">
-        <v>45195</v>
-      </c>
-      <c r="B1366" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1366" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1366" s="3">
-        <v>1018.4</v>
-      </c>
-      <c r="E1366" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1366" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1366" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1367" s="5">
-        <v>45196</v>
-      </c>
-      <c r="B1367" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1367" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1367" s="3">
-        <v>1018.6</v>
-      </c>
-      <c r="E1367" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1367" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1367" s="3">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1368" s="5">
-        <v>45197</v>
-      </c>
-      <c r="B1368" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="C1368" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1368" s="3">
-        <v>1019.1</v>
-      </c>
-      <c r="E1368" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1368" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1368" s="3">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1369" s="5">
-        <v>45198</v>
-      </c>
-      <c r="B1369" s="3">
-        <v>19</v>
-      </c>
-      <c r="C1369" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1369" s="3">
-        <v>1021.1</v>
-      </c>
-      <c r="E1369" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1369" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1369" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1370" s="5">
-        <v>45199</v>
-      </c>
-      <c r="B1370" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1370" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1370" s="3">
-        <v>1020.6</v>
-      </c>
-      <c r="E1370" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1370" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1370" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1371" s="5">
-        <v>45200</v>
-      </c>
-      <c r="B1371" s="3">
-        <v>20.2</v>
-      </c>
-      <c r="C1371" s="3">
-        <v>88</v>
-      </c>
-      <c r="D1371" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1371" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1371" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1371" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1372" s="5">
-        <v>45201</v>
-      </c>
-      <c r="B1372" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1372" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1372" s="3">
-        <v>1021.2</v>
-      </c>
-      <c r="E1372" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1372" s="3">
-        <v>14</v>
-      </c>
-      <c r="G1372" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1373" s="5">
-        <v>45202</v>
-      </c>
-      <c r="B1373" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1373" s="3">
-        <v>91</v>
-      </c>
-      <c r="D1373" s="3">
-        <v>1020.6</v>
-      </c>
-      <c r="E1373" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1373" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1373" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1374" s="5">
-        <v>45203</v>
-      </c>
-      <c r="B1374" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1374" s="3">
-        <v>87</v>
-      </c>
-      <c r="D1374" s="3">
-        <v>1019.7</v>
-      </c>
-      <c r="E1374" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1374" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1374" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1375" s="5">
-        <v>45204</v>
-      </c>
-      <c r="B1375" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1375" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1375" s="3">
-        <v>1019.2</v>
-      </c>
-      <c r="E1375" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1375" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1375" s="3">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1376" s="5">
-        <v>45205</v>
-      </c>
-      <c r="B1376" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1376" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1376" s="3">
-        <v>1019.5</v>
-      </c>
-      <c r="E1376" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1376" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1376" s="3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1377" s="5">
-        <v>45206</v>
-      </c>
-      <c r="B1377" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1377" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1377" s="3">
-        <v>1019.6</v>
-      </c>
-      <c r="E1377" s="3">
-        <v>140</v>
-      </c>
-      <c r="F1377" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1377" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1378" s="5">
-        <v>45207</v>
-      </c>
-      <c r="B1378" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C1378" s="3">
-        <v>90</v>
-      </c>
-      <c r="D1378" s="3">
-        <v>1020.3</v>
-      </c>
-      <c r="E1378" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1378" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1378" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1379" s="5">
-        <v>45208</v>
-      </c>
-      <c r="B1379" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="C1379" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1379" s="3">
-        <v>1020.4</v>
-      </c>
-      <c r="E1379" s="3">
-        <v>10</v>
-      </c>
-      <c r="F1379" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1379" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1380" s="5">
-        <v>45209</v>
-      </c>
-      <c r="B1380" s="3">
-        <v>19.7</v>
-      </c>
-      <c r="C1380" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1380" s="3">
-        <v>1020.1</v>
-      </c>
-      <c r="E1380" s="3">
-        <v>330</v>
-      </c>
-      <c r="F1380" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1380" s="3">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1381" s="5">
-        <v>45210</v>
-      </c>
-      <c r="B1381" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="C1381" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1381" s="3">
-        <v>1019.8</v>
-      </c>
-      <c r="E1381" s="3">
-        <v>50</v>
-      </c>
-      <c r="F1381" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1381" s="3">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1382" s="5">
-        <v>45211</v>
-      </c>
-      <c r="B1382" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1382" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1382" s="3">
-        <v>1020.6</v>
-      </c>
-      <c r="E1382" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1382" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1382" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1383" s="5">
-        <v>45212</v>
-      </c>
-      <c r="B1383" s="3">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C1383" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1383" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1383" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1383" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1383" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1384" s="5">
-        <v>45213</v>
-      </c>
-      <c r="B1384" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C1384" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1384" s="3">
-        <v>1020</v>
-      </c>
-      <c r="E1384" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1384" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1384" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1385" s="5">
-        <v>45214</v>
-      </c>
-      <c r="B1385" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1385" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1385" s="3">
-        <v>1019.4</v>
-      </c>
-      <c r="E1385" s="3">
-        <v>190</v>
-      </c>
-      <c r="F1385" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1385" s="3">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1386" s="5">
-        <v>45215</v>
-      </c>
-      <c r="B1386" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1386" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1386" s="3">
-        <v>1019.3</v>
-      </c>
-      <c r="E1386" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1386" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1386" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1387" s="5">
-        <v>45216</v>
-      </c>
-      <c r="B1387" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="C1387" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1387" s="3">
-        <v>1020.3</v>
-      </c>
-      <c r="E1387" s="3">
-        <v>200</v>
-      </c>
-      <c r="F1387" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1387" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1388" s="5">
-        <v>45217</v>
-      </c>
-      <c r="B1388" s="3">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C1388" s="3">
-        <v>94</v>
-      </c>
-      <c r="D1388" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1388" s="3">
-        <v>80</v>
-      </c>
-      <c r="F1388" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1388" s="3">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1389" s="5">
-        <v>45218</v>
-      </c>
-      <c r="B1389" s="3">
-        <v>20</v>
-      </c>
-      <c r="C1389" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1389" s="3">
-        <v>1020.1</v>
-      </c>
-      <c r="E1389" s="3">
-        <v>40</v>
-      </c>
-      <c r="F1389" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1389" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1390" s="5">
-        <v>45219</v>
-      </c>
-      <c r="B1390" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="C1390" s="3">
-        <v>93</v>
-      </c>
-      <c r="D1390" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1390" s="3">
-        <v>190</v>
-      </c>
-      <c r="F1390" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1390" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1391" s="5">
-        <v>45220</v>
-      </c>
-      <c r="B1391" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1391" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1391" s="3">
-        <v>1021.1</v>
-      </c>
-      <c r="E1391" s="3">
-        <v>220</v>
-      </c>
-      <c r="F1391" s="3">
-        <v>7</v>
-      </c>
-      <c r="G1391" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1392" s="5">
-        <v>45221</v>
-      </c>
-      <c r="B1392" s="3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C1392" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1392" s="3">
-        <v>1020.6</v>
-      </c>
-      <c r="E1392" s="3">
-        <v>140</v>
-      </c>
-      <c r="F1392" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1392" s="3">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1393" s="5">
-        <v>45222</v>
-      </c>
-      <c r="B1393" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1393" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1393" s="3">
-        <v>1020.3</v>
-      </c>
-      <c r="E1393" s="3">
-        <v>210</v>
-      </c>
-      <c r="F1393" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1393" s="3">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1394" s="5">
-        <v>45223</v>
-      </c>
-      <c r="B1394" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C1394" s="3">
-        <v>99</v>
-      </c>
-      <c r="D1394" s="3">
-        <v>1020.6</v>
-      </c>
-      <c r="E1394" s="3">
-        <v>50</v>
-      </c>
-      <c r="F1394" s="3">
-        <v>6</v>
-      </c>
-      <c r="G1394" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1395" s="5">
-        <v>45224</v>
-      </c>
-      <c r="B1395" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="C1395" s="3">
-        <v>96</v>
-      </c>
-      <c r="D1395" s="3">
-        <v>1021</v>
-      </c>
-      <c r="E1395" s="3">
-        <v>140</v>
-      </c>
-      <c r="F1395" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1395" s="3">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1396" s="5">
-        <v>45225</v>
-      </c>
-      <c r="B1396" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="C1396" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1396" s="3">
-        <v>1020.2</v>
-      </c>
-      <c r="E1396" s="3">
-        <v>260</v>
-      </c>
-      <c r="F1396" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1396" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1397" s="5">
-        <v>45226</v>
-      </c>
-      <c r="B1397" s="3">
-        <v>19.2</v>
-      </c>
-      <c r="C1397" s="3">
-        <v>95</v>
-      </c>
-      <c r="D1397" s="3">
-        <v>1019.4</v>
-      </c>
-      <c r="E1397" s="3">
-        <v>100</v>
-      </c>
-      <c r="F1397" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1397" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1398" s="5">
-        <v>45227</v>
-      </c>
-      <c r="B1398" s="3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C1398" s="3">
-        <v>89</v>
-      </c>
-      <c r="D1398" s="3">
-        <v>1019</v>
-      </c>
-      <c r="E1398" s="3">
-        <v>100</v>
-      </c>
-      <c r="F1398" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1398" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1399" s="5">
-        <v>45228</v>
-      </c>
-      <c r="B1399" s="3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C1399" s="3">
-        <v>97</v>
-      </c>
-      <c r="D1399" s="3">
-        <v>1018.8</v>
-      </c>
-      <c r="E1399" s="3">
-        <v>360</v>
-      </c>
-      <c r="F1399" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1399" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1400" s="5">
-        <v>45229</v>
-      </c>
-      <c r="B1400" s="3">
-        <v>18.5</v>
-      </c>
-      <c r="C1400" s="3">
-        <v>98</v>
-      </c>
-      <c r="D1400" s="3">
-        <v>1018.2</v>
-      </c>
-      <c r="E1400" s="3">
-        <v>180</v>
-      </c>
-      <c r="F1400" s="3">
-        <v>3</v>
-      </c>
-      <c r="G1400" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1401" s="9"/>
-      <c r="B1401" s="10"/>
-      <c r="C1401" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
